--- a/Tareas/12 de Septiembre/Gráficas diferencias finitas.xlsx
+++ b/Tareas/12 de Septiembre/Gráficas diferencias finitas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iveth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E7E118-C114-45ED-AAA1-10C4D20BCCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC0C8BC-1219-47FB-9A0F-9B15169FDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F52FBEC5-049C-480F-9473-E12A378F486D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E48A84B1-2FFE-4C8E-848F-79021DE4523E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráficas diferencias finitas" sheetId="1" r:id="rId1"/>
+    <sheet name="resultados" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -696,7 +696,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -756,7 +756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$B$2:$B$18</c:f>
+              <c:f>resultados!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -817,7 +817,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8054-469A-8397-A79BAF920AA0}"/>
+              <c16:uniqueId val="{00000000-7352-4E2B-B7B3-54CA54E8B34D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -853,7 +853,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -913,7 +913,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$C$2:$C$18</c:f>
+              <c:f>resultados!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -974,7 +974,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8054-469A-8397-A79BAF920AA0}"/>
+              <c16:uniqueId val="{00000001-7352-4E2B-B7B3-54CA54E8B34D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1010,7 +1010,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1070,60 +1070,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$D$2:$D$18</c:f>
+              <c:f>resultados!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-7.4375</c:v>
+                  <c:v>-3.7187999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.625</c:v>
+                  <c:v>4.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.375</c:v>
+                  <c:v>-1.1875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.5</c:v>
+                  <c:v>-1.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.875</c:v>
+                  <c:v>-1.9375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.5</c:v>
+                  <c:v>-1.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.375</c:v>
+                  <c:v>-1.1875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.125</c:v>
+                  <c:v>1.0625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.625</c:v>
+                  <c:v>4.8125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.5</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.4375</c:v>
+                  <c:v>-3.7187999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1131,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8054-469A-8397-A79BAF920AA0}"/>
+              <c16:uniqueId val="{00000002-7352-4E2B-B7B3-54CA54E8B34D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1143,11 +1143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2022330799"/>
-        <c:axId val="2022331279"/>
+        <c:axId val="298089952"/>
+        <c:axId val="38956416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2022330799"/>
+        <c:axId val="298089952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,12 +1204,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022331279"/>
+        <c:crossAx val="38956416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2022331279"/>
+        <c:axId val="38956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022330799"/>
+        <c:crossAx val="298089952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1392,7 +1392,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> finitas (Sugunda derivada)</a:t>
+              <a:t> finitas (Segunda derivada)</a:t>
             </a:r>
             <a:endParaRPr lang="es-MX"/>
           </a:p>
@@ -1465,7 +1465,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1525,7 +1525,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$E$2:$E$18</c:f>
+              <c:f>resultados!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1586,7 +1586,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6E5-49E9-9AB0-876BE8A06F75}"/>
+              <c16:uniqueId val="{00000000-E556-43A6-AD9F-97F2E9764EE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1622,7 +1622,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1682,7 +1682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$F$2:$F$18</c:f>
+              <c:f>resultados!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1743,7 +1743,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6E5-49E9-9AB0-876BE8A06F75}"/>
+              <c16:uniqueId val="{00000001-E556-43A6-AD9F-97F2E9764EE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1779,7 +1779,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$A$2:$A$18</c:f>
+              <c:f>resultados!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1839,7 +1839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Gráficas diferencias finitas'!$G$2:$G$18</c:f>
+              <c:f>resultados!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1900,7 +1900,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6E5-49E9-9AB0-876BE8A06F75}"/>
+              <c16:uniqueId val="{00000002-E556-43A6-AD9F-97F2E9764EE9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,11 +1912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2034165423"/>
-        <c:axId val="2034163983"/>
+        <c:axId val="451553584"/>
+        <c:axId val="451543024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2034165423"/>
+        <c:axId val="451553584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,12 +1973,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034163983"/>
+        <c:crossAx val="451543024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2034163983"/>
+        <c:axId val="451543024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2035,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2034165423"/>
+        <c:crossAx val="451553584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3239,13 +3239,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10297</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>619897</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3254,7 +3254,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15FA04E-3A23-9BDA-D6F5-7550037BF9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117AB35F-D4EB-4C54-BD03-BB8EB1F82C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,23 +3274,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>782182</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14313</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>598890</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14313</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DD0067-095E-E2AC-EE33-1BC2310EAE0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389F3BCA-E609-0876-7E24-C7BA277D7E83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3627,11 +3627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B4EBB7-7571-422A-A5E8-4B95D1561D1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8354000-1DA2-443B-8A93-9B1AFEF07258}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3670,7 +3670,7 @@
         <v>-16</v>
       </c>
       <c r="D2">
-        <v>-7.4375</v>
+        <v>-3.7187999999999999</v>
       </c>
       <c r="E2">
         <v>-10.5</v>
@@ -3693,7 +3693,7 @@
         <v>8.5625</v>
       </c>
       <c r="D3">
-        <v>14.5</v>
+        <v>7.25</v>
       </c>
       <c r="E3">
         <v>-9</v>
@@ -3716,7 +3716,7 @@
         <v>5.9375</v>
       </c>
       <c r="D4">
-        <v>9.625</v>
+        <v>4.8125</v>
       </c>
       <c r="E4">
         <v>-7.5</v>
@@ -3739,7 +3739,7 @@
         <v>3.6875</v>
       </c>
       <c r="D5">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="E5">
         <v>-6</v>
@@ -3762,7 +3762,7 @@
         <v>1.8125</v>
       </c>
       <c r="D6">
-        <v>2.125</v>
+        <v>1.0625</v>
       </c>
       <c r="E6">
         <v>-4.5</v>
@@ -3785,7 +3785,7 @@
         <v>0.3125</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E7">
         <v>-3</v>
@@ -3808,7 +3808,7 @@
         <v>-0.8125</v>
       </c>
       <c r="D8">
-        <v>-2.375</v>
+        <v>-1.1875</v>
       </c>
       <c r="E8">
         <v>-1.5</v>
@@ -3831,7 +3831,7 @@
         <v>-1.5625</v>
       </c>
       <c r="D9">
-        <v>-3.5</v>
+        <v>-1.75</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>-1.9375</v>
       </c>
       <c r="D10">
-        <v>-3.875</v>
+        <v>-1.9375</v>
       </c>
       <c r="E10">
         <v>1.5</v>
@@ -3877,7 +3877,7 @@
         <v>-1.9375</v>
       </c>
       <c r="D11">
-        <v>-3.5</v>
+        <v>-1.75</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -3900,7 +3900,7 @@
         <v>-1.5625</v>
       </c>
       <c r="D12">
-        <v>-2.375</v>
+        <v>-1.1875</v>
       </c>
       <c r="E12">
         <v>4.5</v>
@@ -3923,7 +3923,7 @@
         <v>-0.8125</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -3946,7 +3946,7 @@
         <v>0.3125</v>
       </c>
       <c r="D14">
-        <v>2.125</v>
+        <v>1.0625</v>
       </c>
       <c r="E14">
         <v>7.5</v>
@@ -3969,7 +3969,7 @@
         <v>1.8125</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -3992,7 +3992,7 @@
         <v>3.6875</v>
       </c>
       <c r="D16">
-        <v>9.625</v>
+        <v>4.8125</v>
       </c>
       <c r="E16">
         <v>10.5</v>
@@ -4015,7 +4015,7 @@
         <v>5.9375</v>
       </c>
       <c r="D17">
-        <v>14.5</v>
+        <v>7.25</v>
       </c>
       <c r="E17">
         <v>-98.25</v>
@@ -4038,7 +4038,7 @@
         <v>8.5625</v>
       </c>
       <c r="D18">
-        <v>-7.4375</v>
+        <v>-3.7187999999999999</v>
       </c>
       <c r="E18">
         <v>64</v>
